--- a/IP_calculation_Pro/equipment_database.xlsx
+++ b/IP_calculation_Pro/equipment_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,27 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>first_serial_number</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>last_serial_number</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>first_IP</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>last_IP</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ab_label</t>
+          <t>equipment_version</t>
         </is>
       </c>
     </row>
@@ -478,28 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>единственный</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2559</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>10.8.10.1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10.8.19.255</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>open</t>
+          <t>ПРГС.465000.028</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
@@ -511,30 +475,10 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>первый</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10239</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>10.8.160.1</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10.8.199.255</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>open</t>
-        </is>
-      </c>
+          <t>ТТСК.465000.180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -544,28 +488,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>второй</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10239</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>10.8.160.1</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10.8.199.255</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>open</t>
+          <t>ТТСК.465000.180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-01</t>
         </is>
       </c>
     </row>
@@ -577,193 +505,97 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>третий</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10239</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>10.8.160.1</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>10.8.199.255</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>open</t>
+          <t>ТТСК.465000.180</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-02</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Монитор</t>
+          <t>Блок управления камерами</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>единственный</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1279</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>10.8.95.1</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>10.8.99.255</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>open</t>
+          <t>ТТСК.465000.181</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Видеорегистратор</t>
+          <t>Блок управления камерами</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>единственный</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>767</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>10.8.127.1</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>10.8.129.255</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>open</t>
+          <t>ТТСК.465000.183</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Медиамонитор</t>
+          <t>Монитор</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>единственный</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>255</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>10.7.10.1</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>10.7.10.255</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>open</t>
+          <t>ПРГС.465000.012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Домик для Мышки Норушки</t>
+          <t>Видеорегистратор</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>с трубой</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>5119</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>10.6.20.1</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>10.6.39.255</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>open</t>
+          <t>ТТСК.465000.125</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Домик для Мышки Норушки</t>
+          <t>Медиамонитор</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>без трубы</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>5119</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>10.6.20.1</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>10.6.39.255</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>open</t>
+          <t>ПРГС.465000.024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
@@ -778,58 +610,26 @@
           <t>с трубой</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>5120</v>
-      </c>
-      <c r="D11" t="n">
-        <v>7678</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>10.5.20.1</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>10.5.29.255</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>open</t>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Дом Кота Леопольда</t>
+          <t>Домик для Мышки Норушки</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>с мышами</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>511</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>10.5.30.1</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>10.5.31.255</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>close</t>
+          <t>без трубы</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
@@ -841,61 +641,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>без мышей</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>511</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>10.5.30.1</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>10.5.31.255</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>close</t>
+          <t>с мышами</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Кормушка</t>
+          <t>Дом Кота Леопольда</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>для зяблика</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>255</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>10.8.23.1</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>10.8.23.255</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>open</t>
+          <t>без мышей</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
@@ -910,192 +678,122 @@
           <t>для зяблика</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>256</v>
-      </c>
-      <c r="D15" t="n">
-        <v>510</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>10.7.22.1</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>10.7.22.255</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>open</t>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Дом Кота Леопольда</t>
+          <t>Кормушка</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>с мышами</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>512</v>
-      </c>
-      <c r="D16" t="n">
-        <v>766</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>23.5.11.1</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>23.5.11.255</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>open</t>
+          <t>для белочки</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Дом Кота Леопольда</t>
+          <t>Замок</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>без мышей</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>512</v>
-      </c>
-      <c r="D17" t="n">
-        <v>766</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>23.5.11.1</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>23.5.11.255</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>open</t>
+          <t>на скале</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Кормушка</t>
+          <t>Принцесса</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>для зяблика</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>511</v>
-      </c>
-      <c r="D18" t="n">
-        <v>765</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>10.5.11.1</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>10.5.11.255</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>open</t>
+          <t>на горошине</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Кормушка</t>
+          <t>Дом Кота Леопольда</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>для зяблика</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>766</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1532</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>10.8.88.1</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>10.8.90.255</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>open</t>
+          <t>с бардаком</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>единственная</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Кормушка</t>
+          <t>Шапка</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>для зяблика</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>1533</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2043</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>10.7.7.1</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>10.7.8.255</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>open</t>
-        </is>
-      </c>
+          <t>на воре</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>горит</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Шапка</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>на воре</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Замок</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>в лесу</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
